--- a/data_excel/430.xlsx
+++ b/data_excel/430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>桌上</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>bunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -780,15 +784,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/430.xlsx
+++ b/data_excel/430.xlsx
@@ -129,9 +129,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +180,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,9 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -525,7 +534,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -666,7 +675,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,16 +797,16 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -819,7 +828,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
